--- a/SuppXLS/Scen_UC_WINDCAP.xlsx
+++ b/SuppXLS/Scen_UC_WINDCAP.xlsx
@@ -260,7 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149700000882149"/>
+        <fgColor theme="0" tint="-0.149690002202988"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
